--- a/Hardware/Fabrication/Rev B0/BOM/Bill of Materials-WalkMod B0.xlsx
+++ b/Hardware/Fabrication/Rev B0/BOM/Bill of Materials-WalkMod B0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\electronics\pcb_projects\jobs\WalkMod\Hardware\Fabrication\Rev B0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349EF529-070A-4946-9B35-29230556CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE34D96-E3AA-44BA-8698-DC73E25371BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15560" xr2:uid="{B6AB23A8-725C-41E9-806F-3C81040181C3}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15560" xr2:uid="{BC40C6C4-B3FA-432A-AD3C-CC1C93B2B17B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WalkMod B0" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Quantity</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Note</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6</t>
-  </si>
-  <si>
-    <t>06036C105JAT2A</t>
+    <t>C1, C4, C5</t>
+  </si>
+  <si>
+    <t>CL10B105KA8NFNC</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>6.3V</t>
+    <t>25V</t>
   </si>
   <si>
     <t>CX7R0603K</t>
@@ -94,6 +94,30 @@
     <t/>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CL10B474KO8NFNC</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R6BB224</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
     <t>P1, P2, P3, P4, P5, P6, P8</t>
   </si>
   <si>
@@ -112,61 +136,49 @@
     <t>CUI-DS05-127-2-06BK-SMT_C</t>
   </si>
   <si>
-    <t>R1, R6</t>
-  </si>
-  <si>
-    <t>AT0402FRE0710KL</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>62.5mW</t>
+  </si>
+  <si>
+    <t>AT0402_C</t>
+  </si>
+  <si>
+    <t>R2, R3, R4, R5, R6, R7, R8, R9</t>
+  </si>
+  <si>
+    <t>RG1005P-472-B-T5</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>RT0402_C</t>
+  </si>
+  <si>
+    <t>RA, RB, RC</t>
+  </si>
+  <si>
+    <t>3214W-1-103E</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>62.5mW</t>
-  </si>
-  <si>
-    <t>AT0402_C</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>Newark</t>
-  </si>
-  <si>
-    <t>82AH6635</t>
-  </si>
-  <si>
-    <t>R2, R3, R4, R5</t>
-  </si>
-  <si>
-    <t>RT0402DRD0747KL</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>RT0402_C</t>
+    <t>250mW</t>
+  </si>
+  <si>
+    <t>BOURNS_3214W_C</t>
+  </si>
+  <si>
+    <t>Bourns</t>
   </si>
   <si>
     <t>Digi-Key</t>
-  </si>
-  <si>
-    <t>311-2187-2-ND</t>
-  </si>
-  <si>
-    <t>RA, RB, RC</t>
-  </si>
-  <si>
-    <t>3214W-1-103E</t>
-  </si>
-  <si>
-    <t>250mW</t>
-  </si>
-  <si>
-    <t>BOURNS_3214W_C</t>
-  </si>
-  <si>
-    <t>Bourns</t>
   </si>
   <si>
     <t>3214W-103ETR-ND</t>
@@ -569,8 +581,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E99E012-D48F-4230-88B7-1BE11C240C42}">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8725D9FE-88DC-48A7-AA9F-51C858C13E34}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +642,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -638,7 +650,9 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
@@ -658,7 +672,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -666,37 +680,45 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -706,173 +728,211 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
